--- a/Data_science_outputs/1500pop/Monthly_consumption/Montlhy_consumption_2.xlsx
+++ b/Data_science_outputs/1500pop/Monthly_consumption/Montlhy_consumption_2.xlsx
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19429.67980223337</v>
+        <v>11766.92527505004</v>
       </c>
       <c r="C2" t="n">
         <v>1922.248459433342</v>
       </c>
       <c r="D2" t="n">
-        <v>8438.9296311</v>
+        <v>792.6157416166667</v>
       </c>
       <c r="E2" t="n">
         <v>2441.96550815</v>
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18139.79753185004</v>
+        <v>10948.09084975003</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7918.515057966666</v>
+        <v>732.1203122666667</v>
       </c>
       <c r="E3" t="n">
         <v>2282.25878685</v>
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19399.34592550003</v>
+        <v>11727.08913428337</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8427.705657033333</v>
+        <v>776.3483170833333</v>
       </c>
       <c r="E4" t="n">
         <v>2462.410542616667</v>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18745.29463738337</v>
+        <v>11334.08435408337</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>8169.978037033334</v>
+        <v>758.5950234166667</v>
       </c>
       <c r="E5" t="n">
         <v>2371.712923316667</v>
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19343.95862515004</v>
+        <v>11771.38486485004</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>8452.328369466666</v>
+        <v>778.4913420666666</v>
       </c>
       <c r="E6" t="n">
         <v>2463.04862965</v>
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18777.08528743337</v>
+        <v>11347.8633005167</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8187.358307566667</v>
+        <v>773.5021007</v>
       </c>
       <c r="E7" t="n">
         <v>2353.21142455</v>
@@ -613,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19380.82960638337</v>
+        <v>11737.61626008337</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8467.481734283332</v>
+        <v>768.0996165</v>
       </c>
       <c r="E8" t="n">
         <v>2459.87178375</v>
@@ -636,13 +636,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19388.11398948337</v>
+        <v>11741.40859793337</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>8447.138045166666</v>
+        <v>787.38040185</v>
       </c>
       <c r="E9" t="n">
         <v>2439.961017983333</v>
@@ -659,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18786.0560965167</v>
+        <v>11349.54056110004</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>8170.748653616667</v>
+        <v>749.86498935</v>
       </c>
       <c r="E10" t="n">
         <v>2374.37993895</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19358.66650900004</v>
+        <v>11743.28610040004</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8449.873350900001</v>
+        <v>784.8573524333333</v>
       </c>
       <c r="E11" t="n">
         <v>2457.0246808</v>
@@ -705,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18737.14216858337</v>
+        <v>11369.75652638337</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>8180.9323442</v>
+        <v>757.8676801666667</v>
       </c>
       <c r="E12" t="n">
         <v>2379.2436845</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18792.1359838667</v>
+        <v>11315.1905300167</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8192.455372466666</v>
+        <v>759.4010134499999</v>
       </c>
       <c r="E13" t="n">
         <v>2382.112058866667</v>
